--- a/Documents/risk-assessment.xlsx
+++ b/Documents/risk-assessment.xlsx
@@ -1,26 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25630"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F2C839-B3B9-4981-A83E-BEE49AB1F1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk Assessment" sheetId="2" r:id="rId2"/>
+    <sheet name="Assessment Review" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+  <si>
+    <t>Risk Assessment Matrix</t>
+  </si>
+  <si>
+    <t>VERY LOW (1)</t>
+  </si>
+  <si>
+    <t>LOW
+(2)</t>
+  </si>
+  <si>
+    <t>MEDIUM (3)</t>
+  </si>
+  <si>
+    <t>HIGH 
+(4)</t>
+  </si>
+  <si>
+    <t>VERY HIGH (5)</t>
+  </si>
+  <si>
+    <t>&lt; 3</t>
+  </si>
+  <si>
+    <t>Negligable Risk</t>
+  </si>
+  <si>
+    <t>LOW 
+(2)</t>
+  </si>
+  <si>
+    <t>3 TO 5</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>6 TO 10</t>
+  </si>
+  <si>
+    <t>Concern/Warning</t>
+  </si>
+  <si>
+    <t>11 TO 16</t>
+  </si>
+  <si>
+    <t>Significant Issue</t>
+  </si>
+  <si>
+    <t>&gt; 16</t>
+  </si>
+  <si>
+    <t>Catestrophic</t>
+  </si>
+  <si>
+    <t>Risk Assessment (start)</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>EVALUATION</t>
+  </si>
+  <si>
+    <t>LIKELIHOOD</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>NEW LIKELIHOOD</t>
+  </si>
+  <si>
+    <t>NEW IMPACT</t>
+  </si>
+  <si>
+    <t>NEW SCORE</t>
+  </si>
+  <si>
+    <t>Failure to meet deadline</t>
+  </si>
+  <si>
+    <t>Unable to deliver</t>
+  </si>
+  <si>
+    <t>Communicate with stakeholder</t>
+  </si>
+  <si>
+    <t>Monitor &amp; plan progress, focus on MVP</t>
+  </si>
+  <si>
+    <t>Update breaks product</t>
+  </si>
+  <si>
+    <t>Software no long meets MVP</t>
+  </si>
+  <si>
+    <t>Restore from Git</t>
+  </si>
+  <si>
+    <t>Test all code before deployment</t>
+  </si>
+  <si>
+    <t>Somene's machine breaks</t>
+  </si>
+  <si>
+    <t>Unable to complete work</t>
+  </si>
+  <si>
+    <t>Contact stakeholder, try to aquire substitute</t>
+  </si>
+  <si>
+    <t>Reduce strain put on laptop, backup to OneDrive</t>
+  </si>
+  <si>
+    <t>Incomplete documentation</t>
+  </si>
+  <si>
+    <t>Unable to monitor work and support</t>
+  </si>
+  <si>
+    <t>Hold stand-up to discuss such and review plan</t>
+  </si>
+  <si>
+    <t>Update documentation and each other frequently</t>
+  </si>
+  <si>
+    <t>Conflicts in local versions of code</t>
+  </si>
+  <si>
+    <t>Unable to merge on Git</t>
+  </si>
+  <si>
+    <t>Resolve merge conflict</t>
+  </si>
+  <si>
+    <t>Push frequently to Git</t>
+  </si>
+  <si>
+    <t>Risk Assessment (review)</t>
+  </si>
+  <si>
+    <t>DID IT HAPPEN?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +199,111 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -45,12 +311,298 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +882,842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="21" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="4"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" ht="30.75">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:13" ht="30.75">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" ht="30.75">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>8</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" ht="30.75">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>9</v>
+      </c>
+      <c r="G8" s="17">
+        <v>12</v>
+      </c>
+      <c r="H8" s="17">
+        <v>15</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="30.75">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="17">
+        <v>16</v>
+      </c>
+      <c r="H9" s="19">
+        <v>20</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" ht="30.75">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17">
+        <v>15</v>
+      </c>
+      <c r="G10" s="19">
+        <v>20</v>
+      </c>
+      <c r="H10" s="19">
+        <v>25</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5A5F7A-7EF7-4152-B70D-DD8A18B8C5A8}">
+  <dimension ref="B2:M11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="21" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" ht="30.75">
+      <c r="B5" s="4"/>
+      <c r="C5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:13" ht="44.25" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27">
+        <f>E6*F6</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26">
+        <v>4</v>
+      </c>
+      <c r="L6" s="28">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" ht="54.75" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="29">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <f t="shared" ref="G7:G10" si="0">E7*F7</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2</v>
+      </c>
+      <c r="L7" s="31">
+        <v>4</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" ht="73.5" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="29">
+        <v>3</v>
+      </c>
+      <c r="F8" s="29">
+        <v>4</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="29">
+        <v>3</v>
+      </c>
+      <c r="K8" s="29">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38">
+        <v>9</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="60.75" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29">
+        <v>3</v>
+      </c>
+      <c r="F9" s="29">
+        <v>3</v>
+      </c>
+      <c r="G9" s="36">
+        <v>9</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" ht="48" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="29">
+        <v>5</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="29">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="31">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C502E43-0ECB-4C52-ACD7-7D3D12C6B442}">
+  <dimension ref="B2:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="14" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="2:15" ht="21" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" ht="30.75">
+      <c r="B5" s="4"/>
+      <c r="C5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" ht="51.75" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27">
+        <v>10</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26">
+        <v>4</v>
+      </c>
+      <c r="L6" s="28">
+        <v>4</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="str">
+        <f>IF(M6="no", "n/a", " … ")</f>
+        <v xml:space="preserve"> … </v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" ht="53.25" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="29">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29">
+        <v>4</v>
+      </c>
+      <c r="G7" s="30">
+        <v>12</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2</v>
+      </c>
+      <c r="L7" s="31">
+        <v>4</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29" t="str">
+        <f t="shared" ref="N7:N10" si="0">IF(M7="no", "n/a", " … ")</f>
+        <v xml:space="preserve"> … </v>
+      </c>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" ht="69" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="29">
+        <v>3</v>
+      </c>
+      <c r="F8" s="29">
+        <v>4</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8" si="1">E8*F8</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="29">
+        <v>3</v>
+      </c>
+      <c r="K8" s="29">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38">
+        <v>9</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> … </v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" ht="60.75" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29">
+        <v>3</v>
+      </c>
+      <c r="F9" s="29">
+        <v>3</v>
+      </c>
+      <c r="G9" s="36">
+        <v>9</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37">
+        <v>2</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> … </v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" ht="60.75" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="29">
+        <v>5</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" ref="G10" si="2">E10*F10</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="29">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="31">
+        <v>3</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> … </v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:J3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M10" xr:uid="{2C929DB9-9D3A-46B6-B354-58E42D7EE571}">
+      <formula1>"yes, no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/risk-assessment.xlsx
+++ b/Documents/risk-assessment.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F2C839-B3B9-4981-A83E-BEE49AB1F1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmyB.000\Desktop\OneDrive\Software\Projects\ASSESSMENTS\3-finalProject\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295EDEE0-8425-493F-AE16-2B8DC3E8098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Risk Assessment Matrix</t>
   </si>
@@ -185,13 +190,25 @@
   </si>
   <si>
     <t>DID IT HAPPEN?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Some backend updates conflicted; restored to previous commit and reintegrated</t>
+  </si>
+  <si>
+    <t>resolved conflicts, increased pushes, communicated more</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,9 +526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,9 +546,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,6 +613,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,12 +906,12 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -908,214 +925,214 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="21" customHeight="1">
+    <row r="3" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="30.75">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="2:13" ht="30.75">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11">
         <v>4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="2:13" ht="30.75">
+      <c r="L6" s="38"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>8</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>10</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="2:13" ht="30.75">
+      <c r="L7" s="38"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
         <v>6</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>9</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>12</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>15</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" ht="30.75">
+      <c r="L8" s="38"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>8</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>12</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>16</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>20</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" ht="30.75">
+      <c r="L9" s="38"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>5</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>10</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>15</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>20</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>25</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="L10" s="38"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,24 +1142,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5A5F7A-7EF7-4152-B70D-DD8A18B8C5A8}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:L10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1156,244 +1174,244 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="21" customHeight="1">
+    <row r="3" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="30.75">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="2:13" ht="44.25" customHeight="1">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>5</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <f>E6*F6</f>
         <v>10</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>1</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>4</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>4</v>
       </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="2:13" ht="54.75" customHeight="1">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="29">
-        <v>3</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="E7" s="27">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
         <v>4</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <f t="shared" ref="G7:G10" si="0">E7*F7</f>
         <v>12</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>2</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="2:13" ht="73.5" customHeight="1">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="29">
-        <v>3</v>
-      </c>
-      <c r="F8" s="29">
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27">
         <v>4</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="29">
-        <v>3</v>
-      </c>
-      <c r="K8" s="29">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38">
+      <c r="J8" s="27">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36">
         <v>9</v>
       </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" ht="60.75" customHeight="1">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29">
-        <v>3</v>
-      </c>
-      <c r="F9" s="29">
-        <v>3</v>
-      </c>
-      <c r="G9" s="36">
+      <c r="E9" s="27">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3</v>
+      </c>
+      <c r="G9" s="34">
         <v>9</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <v>2</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>1</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <v>2</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" ht="48" customHeight="1">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>5</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>2</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="29">
-        <v>3</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="J10" s="27">
+        <v>3</v>
+      </c>
+      <c r="K10" s="27">
         <v>1</v>
       </c>
-      <c r="L10" s="31">
-        <v>3</v>
-      </c>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
+      <c r="L10" s="29">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1408,23 +1426,25 @@
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N10"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="14" width="10.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1440,274 +1460,282 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="21" customHeight="1">
+    <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="2:15" ht="30.75">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15" ht="51.75" customHeight="1">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>5</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>10</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>1</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>4</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>4</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29" t="str">
+      <c r="M6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="27" t="str">
         <f>IF(M6="no", "n/a", " … ")</f>
-        <v xml:space="preserve"> … </v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15" ht="53.25" customHeight="1">
+        <v>n/a</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="29">
-        <v>3</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="E7" s="27">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
         <v>4</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="28">
         <v>12</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>2</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29" t="str">
-        <f t="shared" ref="N7:N10" si="0">IF(M7="no", "n/a", " … ")</f>
-        <v xml:space="preserve"> … </v>
-      </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15" ht="69" customHeight="1">
+      <c r="M7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="29">
-        <v>3</v>
-      </c>
-      <c r="F8" s="29">
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27">
         <v>4</v>
       </c>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8" si="1">E8*F8</f>
+      <c r="G8" s="33">
+        <f t="shared" ref="G8" si="0">E8*F8</f>
         <v>12</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="29">
-        <v>3</v>
-      </c>
-      <c r="K8" s="29">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38">
+      <c r="J8" s="27">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36">
         <v>9</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> … </v>
-      </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="2:15" ht="60.75" customHeight="1">
+      <c r="M8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="27" t="str">
+        <f t="shared" ref="N7:N10" si="1">IF(M8="no", "n/a", " … ")</f>
+        <v>n/a</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29">
-        <v>3</v>
-      </c>
-      <c r="F9" s="29">
-        <v>3</v>
-      </c>
-      <c r="G9" s="36">
+      <c r="E9" s="27">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3</v>
+      </c>
+      <c r="G9" s="34">
         <v>9</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <v>2</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>1</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <v>2</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> … </v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="2:15" ht="60.75" customHeight="1">
+      <c r="M9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>5</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>2</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <f t="shared" ref="G10" si="2">E10*F10</f>
         <v>10</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="29">
-        <v>3</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="J10" s="27">
+        <v>3</v>
+      </c>
+      <c r="K10" s="27">
         <v>1</v>
       </c>
-      <c r="L10" s="31">
-        <v>3</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> … </v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="L10" s="29">
+        <v>3</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
